--- a/covid19_cases_switzerland.xlsx
+++ b/covid19_cases_switzerland.xlsx
@@ -1,126 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daenu\Code\covid19-cases-switzerland\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777A74E7-8CB7-4ADE-B293-956A390FE322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1035" windowWidth="18900" windowHeight="19665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="covid19_cases_switzerland" sheetId="1" r:id="rId1"/>
-    <sheet name="covid19_fatalities_switzerland" sheetId="6" r:id="rId2"/>
-    <sheet name="Quellen" sheetId="4" r:id="rId3"/>
-    <sheet name="Tests" sheetId="5" r:id="rId4"/>
-    <sheet name="demographics" sheetId="3" r:id="rId5"/>
+    <sheet name="covid19_cases_switzerland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="covid19_fatalities_switzerland" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Quellen" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tests" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="demographics" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>JU</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>OW</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SZ</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
   <si>
     <t>ZH</t>
   </si>
   <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>LU</t>
-  </si>
-  <si>
-    <t>UR</t>
-  </si>
-  <si>
-    <t>SZ</t>
-  </si>
-  <si>
-    <t>OW</t>
-  </si>
-  <si>
-    <t>NW</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>ZG</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>SO</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>TG</t>
-  </si>
-  <si>
-    <t>TI</t>
-  </si>
-  <si>
-    <t>VD</t>
-  </si>
-  <si>
-    <t>VS</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>JU</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Quellen:</t>
+  </si>
+  <si>
+    <t>https://www.nw.ch/gesundheitsamtdienste/6044#Anzahl%C2%A0Erkrankungen</t>
+  </si>
+  <si>
+    <t>https://www.besondere-lage.sites.be.ch/besondere-lage_sites/de/index/corona/index.html#originRequestUrl=www.be.ch/corona</t>
+  </si>
+  <si>
+    <t>https://www.sg.ch/tools/informationen-coronavirus.html</t>
+  </si>
+  <si>
+    <t>https://www4.ti.ch/dss/dsp/covid19/home/</t>
+  </si>
+  <si>
+    <t>@sarahhu87422283</t>
+  </si>
+  <si>
+    <t>https://www.ne.ch/autorites/DFS/SCSP/medecin-cantonal/maladies-vaccinations/Pages/Coronavirus.aspx</t>
+  </si>
+  <si>
+    <t>@borisfritscher</t>
+  </si>
+  <si>
+    <t>https://www.ag.ch/de/themen_1/coronavirus_2/alle_ereignisse/alle_ereignisse_1.jsp</t>
+  </si>
+  <si>
+    <t>@BachliMeyer</t>
+  </si>
+  <si>
+    <t>https://www.gr.ch/DE/institutionen/verwaltung/djsg/ga/coronavirus/info/Seiten/Start.aspx</t>
+  </si>
+  <si>
+    <t>https://www.ai.ch/themen/gesundheit-alter-und-soziales/gesundheitsfoerderung-und-praevention/uebertragbare-krankheiten/coronavirus</t>
+  </si>
+  <si>
+    <t>https://www.ur.ch/themen/2920</t>
+  </si>
+  <si>
+    <t>https://www.vs.ch/de/web/coronavirus</t>
+  </si>
+  <si>
+    <t>@enno_hermann</t>
+  </si>
+  <si>
+    <t>https://www.jura.ch/fr/Autorites/Coronavirus/Accueil/Coronavirus-Informations-officielles-a-la-population-jurassienne.html</t>
+  </si>
+  <si>
+    <t>https://www.ge.ch/covid-19-professionnels-sante-reseau-soins</t>
+  </si>
+  <si>
+    <t>@ThomasGriessen</t>
+  </si>
+  <si>
+    <t>https://gesundheit.lu.ch/themen/Humanmedizin/Infektionskrankheiten/Coronavirus</t>
+  </si>
+  <si>
+    <t>@neph_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Official statement in video</t>
+  </si>
+  <si>
+    <t>https://www.vd.ch/toutes-les-actualites/hotline-et-informations-sur-le-coronavirus/</t>
+  </si>
+  <si>
+    <t>@f_giroud</t>
+  </si>
+  <si>
+    <t>https://www.tg.ch/news/fachdossier-coronavirus.html/10552</t>
+  </si>
+  <si>
+    <t>https://sh.ch/CMS/Webseite/Kanton-Schaffhausen/Beh-rde/Verwaltung/Departement-des-Innern/Gesundheitsamt-3209198-DE.html</t>
+  </si>
+  <si>
+    <t>https://www.baselland.ch/</t>
+  </si>
+  <si>
+    <t>https://www.coronavirus.bs.ch/</t>
+  </si>
+  <si>
+    <t>https://www.zg.ch/behoerden/gesundheitsdirektion/direktionssekretariat/aktuell/coronavirus-ausreichende-testkapazitaeten-im-kanton-zug-vorhanden</t>
+  </si>
+  <si>
+    <t>https://www.fr.ch/de/covid19/gesundheit/covid-19/coronavirus-entwicklungen-der-situation</t>
   </si>
   <si>
     <t>Canton</t>
@@ -144,129 +211,43 @@
     <t>BedsPerCapita</t>
   </si>
   <si>
-    <t>Quellen:</t>
-  </si>
-  <si>
-    <t>https://www.nw.ch/gesundheitsamtdienste/6044#Anzahl%C2%A0Erkrankungen</t>
-  </si>
-  <si>
-    <t>https://www.besondere-lage.sites.be.ch/besondere-lage_sites/de/index/corona/index.html#originRequestUrl=www.be.ch/corona</t>
-  </si>
-  <si>
-    <t>https://www.sg.ch/tools/informationen-coronavirus.html</t>
-  </si>
-  <si>
-    <t>@sarahhu87422283</t>
-  </si>
-  <si>
-    <t>@borisfritscher</t>
-  </si>
-  <si>
-    <t>https://www.ne.ch/autorites/DFS/SCSP/medecin-cantonal/maladies-vaccinations/Pages/Coronavirus.aspx</t>
-  </si>
-  <si>
-    <t>@BachliMeyer</t>
-  </si>
-  <si>
-    <t>https://www.ai.ch/themen/gesundheit-alter-und-soziales/gesundheitsfoerderung-und-praevention/uebertragbare-krankheiten/coronavirus</t>
-  </si>
-  <si>
-    <t>https://www.vs.ch/de/web/coronavirus</t>
-  </si>
-  <si>
-    <t>@enno_hermann</t>
-  </si>
-  <si>
-    <t>https://www.jura.ch/fr/Autorites/Coronavirus/Accueil/Coronavirus-Informations-officielles-a-la-population-jurassienne.html</t>
-  </si>
-  <si>
-    <t>@neph_b</t>
-  </si>
-  <si>
-    <t>* Official statement in video</t>
-  </si>
-  <si>
-    <t>@f_giroud</t>
-  </si>
-  <si>
-    <t>https://www.tg.ch/news/fachdossier-coronavirus.html/10552</t>
-  </si>
-  <si>
-    <t>https://sh.ch/CMS/Webseite/Kanton-Schaffhausen/Beh-rde/Verwaltung/Departement-des-Innern/Gesundheitsamt-3209198-DE.html</t>
-  </si>
-  <si>
-    <t>https://www.baselland.ch/</t>
-  </si>
-  <si>
-    <t>https://www.coronavirus.bs.ch/</t>
-  </si>
-  <si>
-    <t>https://www.gr.ch/DE/institutionen/verwaltung/djsg/ga/coronavirus/info/Seiten/Start.aspx</t>
-  </si>
-  <si>
     <t xml:space="preserve">: </t>
-  </si>
-  <si>
-    <t>https://www.vd.ch/toutes-les-actualites/hotline-et-informations-sur-le-coronavirus/</t>
-  </si>
-  <si>
-    <t>https://www.ag.ch/de/themen_1/coronavirus_2/alle_ereignisse/alle_ereignisse_1.jsp</t>
-  </si>
-  <si>
-    <t>https://gesundheit.lu.ch/themen/Humanmedizin/Infektionskrankheiten/Coronavirus</t>
-  </si>
-  <si>
-    <t>https://www.zg.ch/behoerden/gesundheitsdirektion/direktionssekretariat/aktuell/coronavirus-ausreichende-testkapazitaeten-im-kanton-zug-vorhanden</t>
-  </si>
-  <si>
-    <t>https://www4.ti.ch/dss/dsp/covid19/home/</t>
-  </si>
-  <si>
-    <t>https://www.fr.ch/de/covid19/gesundheit/covid-19/coronavirus-entwicklungen-der-situation</t>
-  </si>
-  <si>
-    <t>https://www.ur.ch/themen/2920</t>
-  </si>
-  <si>
-    <t>@ThomasGriessen</t>
-  </si>
-  <si>
-    <t>https://www.ge.ch/covid-19-professionnels-sante-reseau-soins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="160" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Calibri"/>
+      <color theme="10"/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
+    <fill/>
+    <fill/>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -276,16 +257,15 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -293,19 +273,294 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -347,74 +602,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,7 +617,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -448,7 +643,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -500,16 +695,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -525,7 +732,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -556,116 +763,109 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="L26" activeCellId="0" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.42578125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5703125" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="10.42578125"/>
+    <col customWidth="1" min="28" max="28" width="7.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" ht="14">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="14">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -747,12 +947,12 @@
       <c r="AA2">
         <v>24</v>
       </c>
-      <c r="AB2" s="4">
-        <f>SUM(B2:AA2)</f>
+      <c r="AB2" s="2">
+        <f t="shared" ref="AB2:AB10" si="0">SUM(B2:AA2)</f>
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" ht="14">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -834,12 +1034,12 @@
       <c r="AA3">
         <v>28</v>
       </c>
-      <c r="AB3" s="4">
-        <f>SUM(B3:AA3)</f>
+      <c r="AB3" s="2">
+        <f t="shared" si="0"/>
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" ht="14">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -921,12 +1121,12 @@
       <c r="AA4">
         <v>34</v>
       </c>
-      <c r="AB4" s="4">
-        <f>SUM(B4:AA4)</f>
+      <c r="AB4" s="2">
+        <f t="shared" si="0"/>
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" ht="14">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -1008,12 +1208,12 @@
       <c r="AA5">
         <v>36</v>
       </c>
-      <c r="AB5" s="4">
-        <f t="shared" ref="AB5:AB10" si="0">SUM(B5:AA5)</f>
+      <c r="AB5" s="2">
+        <f t="shared" si="0"/>
         <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" ht="14">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -1095,12 +1295,12 @@
       <c r="AA6">
         <v>45</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="2">
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" ht="14">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -1182,12 +1382,12 @@
       <c r="AA7">
         <v>55</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="2">
         <f t="shared" si="0"/>
         <v>639</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" ht="14">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -1269,12 +1469,12 @@
       <c r="AA8">
         <v>91</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB8" s="2">
         <f t="shared" si="0"/>
         <v>883</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" ht="14">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -1356,12 +1556,12 @@
       <c r="AA9">
         <v>140</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="2">
         <f t="shared" si="0"/>
         <v>1225</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" ht="14">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -1443,12 +1643,12 @@
       <c r="AA10">
         <v>148</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="2">
         <f t="shared" si="0"/>
         <v>1532</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" ht="14">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -1467,11 +1667,11 @@
       <c r="X11">
         <v>406</v>
       </c>
-      <c r="AB11" s="4">
+      <c r="AB11" s="2">
         <v>2155</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" ht="14">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -1511,11 +1711,11 @@
       <c r="AA12">
         <v>270</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" s="2">
         <v>2327</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" ht="14">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -1561,11 +1761,11 @@
       <c r="AA13">
         <v>294</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB13" s="2">
         <v>2650</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" ht="14">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -1647,12 +1847,12 @@
       <c r="AA14">
         <v>424</v>
       </c>
-      <c r="AB14" s="4">
-        <f>SUM(B14:AA14)</f>
+      <c r="AB14" s="2">
+        <f t="shared" ref="AB14:AB16" si="1">SUM(B14:AA14)</f>
         <v>3796</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" ht="14">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
@@ -1735,11 +1935,11 @@
         <v>526</v>
       </c>
       <c r="AB15">
-        <f>SUM(B15:AA15)</f>
+        <f t="shared" si="1"/>
         <v>5089</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" ht="14">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -1821,12 +2021,12 @@
       <c r="AA16">
         <v>773</v>
       </c>
-      <c r="AB16" s="4">
-        <f>SUM(B16:AA16)</f>
+      <c r="AB16" s="2">
+        <f t="shared" si="1"/>
         <v>6391</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" ht="14">
       <c r="A17" s="1">
         <v>43911</v>
       </c>
@@ -1902,12 +2102,12 @@
       <c r="Y17">
         <v>359</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB17" s="2">
         <f>SUM(B17:AA17)+AA16+Z16</f>
         <v>7354</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" ht="14">
       <c r="A18" s="1">
         <v>43912</v>
       </c>
@@ -1983,12 +2183,12 @@
       <c r="AA18">
         <v>891</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AB18" s="2">
         <f>SUM(B18:AA18)+Z16+E17</f>
         <v>8120</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" ht="14">
       <c r="A19" s="1">
         <v>43913</v>
       </c>
@@ -2070,12 +2270,12 @@
       <c r="AA19">
         <v>1068</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AB19" s="2">
         <f>SUM(B19:AA19)</f>
         <v>9356</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" ht="14">
       <c r="A20" s="1">
         <v>43914</v>
       </c>
@@ -2139,6 +2339,9 @@
       <c r="V20">
         <v>1211</v>
       </c>
+      <c r="W20">
+        <v>25</v>
+      </c>
       <c r="Y20">
         <v>544</v>
       </c>
@@ -2148,141 +2351,139 @@
       <c r="AA20">
         <v>1211</v>
       </c>
-      <c r="AB20" s="4">
-        <f>SUM(B20:AA20)+X19+W19+S19</f>
-        <v>9884</v>
+      <c r="AB20" s="2">
+        <f>SUM(B20:AA20)+X19+S19</f>
+        <v>9887</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U5:U17">
-    <sortCondition ref="U5"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="0" fitToWidth="0" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7F9FF-DA82-4772-9651-CE094ADEC3E5}">
-  <dimension ref="A1:AB20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="W29" activeCellId="0" sqref="W29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="4"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="2.85546875"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="3.42578125"/>
+    <col bestFit="1" customWidth="1" min="5" max="9" width="4"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="3.140625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="4"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" width="3"/>
+    <col bestFit="1" customWidth="1" min="13" max="13" width="3.140625"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="4"/>
+    <col bestFit="1" customWidth="1" min="15" max="16" width="4.28515625"/>
+    <col bestFit="1" customWidth="1" min="17" max="18" width="3.28515625"/>
+    <col bestFit="1" customWidth="1" min="19" max="19" width="3.42578125"/>
+    <col bestFit="1" customWidth="1" min="20" max="20" width="3"/>
+    <col bestFit="1" customWidth="1" min="21" max="21" width="3.28515625"/>
+    <col bestFit="1" customWidth="1" min="22" max="22" width="4"/>
+    <col bestFit="1" customWidth="1" min="23" max="23" width="3.42578125"/>
+    <col bestFit="1" customWidth="1" min="24" max="24" width="5"/>
+    <col bestFit="1" customWidth="1" min="25" max="25" width="4"/>
+    <col bestFit="1" customWidth="1" min="26" max="26" width="3.28515625"/>
+    <col bestFit="1" customWidth="1" min="27" max="27" width="4"/>
+    <col bestFit="1" customWidth="1" min="28" max="28" width="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -2295,9 +2496,9 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -2310,9 +2511,9 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -2325,9 +2526,9 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -2340,9 +2541,9 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -2355,9 +2556,9 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -2370,9 +2571,9 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -2385,9 +2586,9 @@
       <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -2406,9 +2607,9 @@
       <c r="AA9">
         <v>0</v>
       </c>
-      <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -2427,9 +2628,9 @@
       <c r="Y10">
         <v>1</v>
       </c>
-      <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -2451,9 +2652,9 @@
       <c r="Y11">
         <v>1</v>
       </c>
-      <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -2478,9 +2679,9 @@
       <c r="AA12">
         <v>1</v>
       </c>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB12" s="2"/>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -2496,9 +2697,9 @@
       <c r="Y13">
         <v>3</v>
       </c>
-      <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB13" s="2"/>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -2517,9 +2718,9 @@
       <c r="Y14">
         <v>3</v>
       </c>
-      <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB14" s="2"/>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
@@ -2545,7 +2746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -2576,9 +2777,9 @@
       <c r="AA16">
         <v>3</v>
       </c>
-      <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB16" s="2"/>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
         <v>43911</v>
       </c>
@@ -2621,12 +2822,12 @@
       <c r="AA17">
         <v>3</v>
       </c>
-      <c r="AB17" s="4">
-        <f>SUM(B17:AA17)</f>
+      <c r="AB17" s="2">
+        <f t="shared" ref="AB17:AB20" si="2">SUM(B17:AA17)</f>
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="1">
         <v>43912</v>
       </c>
@@ -2669,12 +2870,12 @@
       <c r="AA18">
         <v>3</v>
       </c>
-      <c r="AB18" s="4">
-        <f>SUM(B18:AA18)</f>
+      <c r="AB18" s="2">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="1">
         <v>43913</v>
       </c>
@@ -2720,12 +2921,12 @@
       <c r="AA19">
         <v>5</v>
       </c>
-      <c r="AB19" s="4">
-        <f>SUM(B19:AA19)</f>
+      <c r="AB19" s="2">
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="1">
         <v>43914</v>
       </c>
@@ -2777,480 +2978,485 @@
       <c r="AA20">
         <v>5</v>
       </c>
-      <c r="AB20" s="4">
-        <f>SUM(B20:AA20)</f>
+      <c r="AB20" s="2">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="0" fitToWidth="0" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B7CD16-821B-4F71-9E45-F399140EBC9C}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="180.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="180.140625"/>
+    <col customWidth="1" min="3" max="3" width="29.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="9">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="14">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="Anzahl%C2%A0Erkrankungen" display="https://www.nw.ch/gesundheitsamtdienste/6044 - Anzahl%C2%A0Erkrankungen" xr:uid="{368D29F9-18D5-4BE0-A82A-697E4A6494B4}"/>
-    <hyperlink ref="B3" r:id="rId2" location="originRequestUrl=www.be.ch/corona" xr:uid="{90EDDEF4-8D35-4060-B482-4742B1F34CD6}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{DB180D48-A82E-4B10-AD07-E966F5F0A4DC}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{54FC1A73-D5EE-4E98-84BC-4D50BF6BF74C}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{2C76560F-6595-4D27-BA3A-8C03A37CFE59}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{ADDE70E2-B49C-4416-81AF-41854C094A62}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{A31E6CF7-91A7-4D97-B47D-3F52557EF47C}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{10400BC4-69C6-43F2-8E09-A52E1A451E9C}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{30961DFB-4E45-4611-A82F-A2689E420CC1}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{7691208C-FFDC-4FF8-92C7-35AF3F7D70C3}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{E1CE2206-BBEB-46B5-9776-F8AFE6FF73B7}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{BB97D922-F236-484B-9A6A-5EC1C87ED5F6}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{5E4E04C7-A68C-4DC8-9547-5DA33AB3469E}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{6D3273C1-5FFA-4B84-8BD6-E04F2ABC952F}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{BD05A047-E32B-4A12-BE51-6351F4C7C42F}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{38512648-04E5-4491-96AA-EF48D53636AB}"/>
-    <hyperlink ref="B8" r:id="rId17" xr:uid="{31E99BB6-82A4-4C45-B793-5F63A7878891}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{1EAFE4A5-0491-4F61-9BF3-31053EEEC247}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{D97958E5-3E9B-4AE6-83ED-1BD900EA7199}"/>
-    <hyperlink ref="B14" r:id="rId20" xr:uid="{EDD4802E-432B-4800-A01A-91A6027A11EF}"/>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
+    <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
+    <hyperlink r:id="rId15" ref="B16"/>
+    <hyperlink r:id="rId16" ref="B17"/>
+    <hyperlink r:id="rId17" ref="B18"/>
+    <hyperlink r:id="rId18" ref="B19"/>
+    <hyperlink r:id="rId19" ref="B20"/>
+    <hyperlink r:id="rId20" ref="B21"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="0" fitToWidth="0" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB15D9C-377E-4F66-998B-5427F83AE200}">
-  <dimension ref="A1:AB13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="10.42578125"/>
+    <col customWidth="1" min="2" max="2" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
-      <c r="AB2" s="4"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
-      <c r="AB3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
-      <c r="AB4" s="4"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
-      <c r="AB5" s="4"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
-      <c r="AB6" s="4"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
-      <c r="AB7" s="4"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
-      <c r="AB8" s="4"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
-      <c r="AB9" s="4"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
-      <c r="AB10" s="4"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
-      <c r="AB11" s="4"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB12" s="2"/>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
       <c r="U13">
         <v>276</v>
       </c>
-      <c r="AB13" s="4"/>
+      <c r="AB13" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="0" fitToWidth="0" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31030D7-6127-45B4-88E3-D01E088D3FDA}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q28" sqref="O2:Q28"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="Q28" activeCellId="0" sqref="O2:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="9.140625"/>
+    <col customWidth="1" min="2" max="2" width="13.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1520968</v>
@@ -3259,40 +3465,40 @@
         <v>880</v>
       </c>
       <c r="D2">
-        <v>0.17</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="E2">
-        <f>ROUND(B2*D2,0)</f>
+        <f t="shared" ref="E2:E27" si="3">ROUND(B2*D2,0)</f>
         <v>258565</v>
       </c>
       <c r="F2">
         <v>4472</v>
       </c>
       <c r="G2">
-        <f>F2/B2</f>
-        <v>2.9402327991121442E-3</v>
+        <f t="shared" ref="G2:G28" si="4">F2/B2</f>
+        <v>0.0029402327991121442</v>
       </c>
       <c r="L2">
-        <f>B2/100000</f>
+        <f t="shared" ref="L2:L28" si="5">B2/100000</f>
         <v>15.209680000000001</v>
       </c>
       <c r="M2">
-        <v>66.8</v>
+        <v>66.799999999999997</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q27" si="0">ROUND(L2*M2,0)</f>
+        <f t="shared" ref="Q2:Q27" si="6">ROUND(L2*M2,0)</f>
         <v>1016</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1034977</v>
@@ -3304,37 +3510,37 @@
         <v>0.20799999999999999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E27" si="1">ROUND(B3*D3,0)</f>
+        <f t="shared" si="3"/>
         <v>215275</v>
       </c>
       <c r="F3">
         <v>3053</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G28" si="2">F3/B3</f>
-        <v>2.9498240057508522E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0029498240057508522</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L28" si="3">B3/100000</f>
+        <f t="shared" si="5"/>
         <v>10.349769999999999</v>
       </c>
       <c r="M3">
         <v>47.5</v>
       </c>
       <c r="O3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>799145</v>
@@ -3346,37 +3552,37 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>131060</v>
       </c>
       <c r="F4">
         <v>2268</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
-        <v>2.8380331479268468E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0028380331479268468</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.9914500000000004</v>
       </c>
       <c r="M4">
         <v>263</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>2102</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>678207</v>
@@ -3388,35 +3594,35 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120043</v>
       </c>
       <c r="F5">
         <v>1450</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>2.1379903185900469E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0021379903185900469</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.78207</v>
       </c>
       <c r="M5">
         <v>36.299999999999997</v>
       </c>
       <c r="O5" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3430,18 +3636,18 @@
         <v>0.183</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92909</v>
       </c>
       <c r="F6">
         <v>1565</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
-        <v>3.0825472673661654E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0030825472673661654</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.0769700000000002</v>
       </c>
       <c r="M6">
@@ -3451,16 +3657,16 @@
         <v>16</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>495249</v>
@@ -3472,37 +3678,37 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81221</v>
       </c>
       <c r="F7">
         <v>1506</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>3.0408945803020301E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0030408945803020301</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.9524900000000001</v>
       </c>
       <c r="M7">
         <v>158</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>782</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>409557</v>
@@ -3514,37 +3720,37 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72082</v>
       </c>
       <c r="F8">
         <v>977</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>2.3855043376135678E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0023855043376135678</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0955700000000004</v>
       </c>
       <c r="M8">
         <v>34.700000000000003</v>
       </c>
       <c r="O8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>353343</v>
@@ -3556,37 +3762,37 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79856</v>
       </c>
       <c r="F9">
         <v>1338</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>3.7866888547388798E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0037866888547388798</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.5334300000000001</v>
       </c>
       <c r="M9">
-        <v>339.9</v>
+        <v>339.89999999999998</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>1201</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>343955</v>
@@ -3598,37 +3804,37 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67415</v>
       </c>
       <c r="F10">
         <v>834</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>2.4247357939265312E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0024247357939265312</v>
       </c>
       <c r="L10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4395500000000001</v>
       </c>
       <c r="M10">
-        <v>145.1</v>
+        <v>145.09999999999999</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>318714</v>
@@ -3640,37 +3846,37 @@
         <v>0.157</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>50038</v>
       </c>
       <c r="F11">
         <v>547</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>1.7162722691817743E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0017162722691817743</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1871399999999999</v>
       </c>
       <c r="M11">
-        <v>68.7</v>
+        <v>68.700000000000003</v>
       </c>
       <c r="O11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>288132</v>
@@ -3682,37 +3888,37 @@
         <v>0.219</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63101</v>
       </c>
       <c r="F12">
         <v>582</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>2.0199075423764108E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0020199075423764108</v>
       </c>
       <c r="L12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8813200000000001</v>
       </c>
       <c r="M12">
         <v>102.7</v>
       </c>
       <c r="O12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>276472</v>
@@ -3724,37 +3930,37 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>48659</v>
       </c>
       <c r="F13">
         <v>570</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>2.0616915998726815E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0020616915998726815</v>
       </c>
       <c r="L13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7647200000000001</v>
       </c>
       <c r="M13">
-        <v>26.4</v>
+        <v>26.399999999999999</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>273194</v>
@@ -3766,37 +3972,37 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>53546</v>
       </c>
       <c r="F14">
         <v>510</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>1.8668052739079189E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0018668052739079189</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7319399999999998</v>
       </c>
       <c r="M14">
-        <v>32.9</v>
+        <v>32.899999999999999</v>
       </c>
       <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>10</v>
-      </c>
-      <c r="P14" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
       </c>
       <c r="B15">
         <v>198379</v>
@@ -3808,37 +4014,37 @@
         <v>0.21299999999999999</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42255</v>
       </c>
       <c r="F15">
         <v>546</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>2.7523074518976303E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0027523074518976303</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9837899999999999</v>
       </c>
       <c r="M15">
         <v>142.69999999999999</v>
       </c>
       <c r="O15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>194766</v>
@@ -3850,37 +4056,37 @@
         <v>0.19900000000000001</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38758</v>
       </c>
       <c r="F16">
         <v>1199</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
-        <v>6.1561052750480063E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0061561052750480063</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9476599999999999</v>
       </c>
       <c r="M16">
-        <v>240.3</v>
+        <v>240.30000000000001</v>
       </c>
       <c r="O16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>177964</v>
@@ -3892,37 +4098,37 @@
         <v>0.19</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33813</v>
       </c>
       <c r="F17">
         <v>385</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
-        <v>2.1633588815715538E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0021633588815715538</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7796400000000001</v>
       </c>
       <c r="M17">
         <v>102.3</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>159165</v>
@@ -3934,37 +4140,37 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>28172</v>
       </c>
       <c r="F18">
         <v>274</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
-        <v>1.7214839945968021E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0017214839945968021</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.59165</v>
       </c>
       <c r="M18">
-        <v>50.3</v>
+        <v>50.299999999999997</v>
       </c>
       <c r="O18" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P18" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>126837</v>
@@ -3973,40 +4179,40 @@
         <v>531</v>
       </c>
       <c r="D19">
-        <v>0.17</v>
+        <v>0.17000000000000001</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21562</v>
       </c>
       <c r="F19">
         <v>206</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
-        <v>1.6241317596600361E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0016241317596600361</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.26837</v>
       </c>
       <c r="M19">
-        <v>38.6</v>
+        <v>38.600000000000001</v>
       </c>
       <c r="O19" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>81991</v>
@@ -4018,37 +4224,37 @@
         <v>0.21199999999999999</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17382</v>
       </c>
       <c r="F20">
         <v>186</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
-        <v>2.2685416692075958E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0022685416692075958</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81991000000000003</v>
       </c>
       <c r="M20">
         <v>39</v>
       </c>
       <c r="O20" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>73419</v>
@@ -4060,37 +4266,37 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15345</v>
       </c>
       <c r="F21">
         <v>145</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
-        <v>1.9749656083575097E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0019749656083575097</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.73419000000000001</v>
       </c>
       <c r="M21">
-        <v>76.3</v>
+        <v>76.299999999999997</v>
       </c>
       <c r="O21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>55234</v>
@@ -4102,37 +4308,37 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10881</v>
       </c>
       <c r="F22">
         <v>208</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
-        <v>3.7657964297353082E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0037657964297353082</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55234000000000005</v>
       </c>
       <c r="M22">
-        <v>54.3</v>
+        <v>54.299999999999997</v>
       </c>
       <c r="O22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
         <v>14</v>
-      </c>
-      <c r="P22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
       </c>
       <c r="B23">
         <v>43223</v>
@@ -4144,37 +4350,37 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8774</v>
       </c>
       <c r="F23">
         <v>73</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
-        <v>1.6889156236263101E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0016889156236263101</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.43223</v>
       </c>
       <c r="M23">
-        <v>90.2</v>
+        <v>90.200000000000003</v>
       </c>
       <c r="O23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P23" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>40403</v>
@@ -4186,37 +4392,37 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8121</v>
       </c>
       <c r="F24">
         <v>86</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
-        <v>2.1285548102863649E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0021285548102863649</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.40403</v>
       </c>
       <c r="M24">
-        <v>74.3</v>
+        <v>74.299999999999997</v>
       </c>
       <c r="O24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B25">
         <v>37841</v>
@@ -4228,37 +4434,37 @@
         <v>0.188</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7114</v>
       </c>
       <c r="F25">
         <v>50</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
-        <v>1.3213181469834306E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0013213181469834306</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37841000000000002</v>
       </c>
       <c r="M25">
-        <v>63.4</v>
+        <v>63.399999999999999</v>
       </c>
       <c r="O25" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="P25" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>36433</v>
@@ -4270,37 +4476,37 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7432</v>
       </c>
       <c r="F26">
         <v>63</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
-        <v>1.7292015480471002E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0017292015480471002</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.36432999999999999</v>
       </c>
       <c r="M26">
-        <v>41.2</v>
+        <v>41.200000000000003</v>
       </c>
       <c r="O26" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="P26" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>16145</v>
@@ -4312,37 +4518,37 @@
         <v>0.191</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3084</v>
       </c>
       <c r="F27">
         <v>18</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
-        <v>1.1148962527098173E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0011148962527098173</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16145000000000001</v>
       </c>
       <c r="M27">
-        <v>24.8</v>
+        <v>24.800000000000001</v>
       </c>
       <c r="O27" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <f>SUM(B2:B27)</f>
@@ -4365,18 +4571,18 @@
         <v>23111</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>2.7057593535493554E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.0027057593535493554</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>85.414100000000005</v>
       </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q28">
         <f>SUM(Q2:Q27)</f>
@@ -4384,7 +4590,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="0" fitToWidth="0" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
 </worksheet>
 </file>